--- a/docs/画面項目定義書/利用者管理ダッシュボード.xlsx
+++ b/docs/画面項目定義書/利用者管理ダッシュボード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A2DE2-129A-444F-84C2-B40F59F3ED4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EBBBD8-0503-4DAB-996B-D8E526369A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>日本工学院</t>
   </si>
@@ -257,16 +257,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>繰り返しで表示、押下時オブジェクトを削除</t>
-    <rPh sb="8" eb="11">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -283,6 +273,58 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、押下時確認ポップアップを表示</t>
+    <rPh sb="8" eb="11">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -690,6 +732,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,9 +743,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1240,13 +1282,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" customWidth="1"/>
@@ -1292,10 +1334,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1305,10 +1347,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="37" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="32"/>
@@ -1423,7 +1465,7 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1440,7 +1482,7 @@
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1457,7 +1499,7 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1474,7 +1516,7 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1525,35 +1567,55 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G21" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
